--- a/Assets/_Excel/skill.xlsx
+++ b/Assets/_Excel/skill.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityDemo\BattleFlagGame\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403567C2-8677-42FC-B01A-2B0DE18E8A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA1CDD-AC03-4678-9F68-200FAAAB6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,6 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0</t>
@@ -88,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +287,38 @@
   </si>
   <si>
     <t>hitlightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给物攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给物的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱的攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,12 +341,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -367,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -513,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,27 +701,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E499485-6717-4EFD-94E4-80BB7B103708}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="9" width="17.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -806,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -847,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -888,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -929,7 +967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -970,7 +1008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -1011,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
@@ -1050,6 +1088,170 @@
       </c>
       <c r="M9" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1667</v>
+      </c>
+      <c r="L10" s="1">
+        <v>820</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1667</v>
+      </c>
+      <c r="L11" s="1">
+        <v>820</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1667</v>
+      </c>
+      <c r="L12" s="1">
+        <v>820</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1667</v>
+      </c>
+      <c r="L13" s="1">
+        <v>820</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/skill.xlsx
+++ b/Assets/_Excel/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA1CDD-AC03-4678-9F68-200FAAAB6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D83AE-CF56-4A2E-B2C3-7B8768D1CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
+    <workbookView xWindow="1125" yWindow="2730" windowWidth="27675" windowHeight="11325" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>陷阱的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给站攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给站的攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E499485-6717-4EFD-94E4-80BB7B103708}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1254,6 +1262,47 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1667</v>
+      </c>
+      <c r="L14" s="1">
+        <v>820</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_Excel/skill.xlsx
+++ b/Assets/_Excel/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D83AE-CF56-4A2E-B2C3-7B8768D1CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218B29A-8050-4CC9-93AC-3D2B3E44AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2730" windowWidth="27675" windowHeight="11325" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
+    <workbookView xWindow="645" yWindow="2670" windowWidth="27675" windowHeight="11325" xr2:uid="{2135C274-778A-4362-A271-7BC75D43935F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E499485-6717-4EFD-94E4-80BB7B103708}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,13 +1112,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1153,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1194,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1235,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1276,13 +1276,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
